--- a/xlsx/格兰戴尔_intext.xlsx
+++ b/xlsx/格兰戴尔_intext.xlsx
@@ -35,7 +35,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E6%AD%A6%E5%A4%AB</t>
   </si>
   <si>
-    <t>貝武夫</t>
+    <t>贝武夫</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E4%BC%A6%E6%88%B4%E5%B0%94</t>
